--- a/data/contacts/SFR - contacts.xlsx
+++ b/data/contacts/SFR - contacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8010174\Desktop\projects\Lettre de Motivation adapter\data\contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2351F29E-BFDA-4BC7-8B4F-9E887CB2F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1761B921-95DB-4E08-9F06-1D653680E410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5892" yWindow="2328" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>NOM</t>
   </si>
@@ -57,27 +57,18 @@
     <t>https://www.linkedin.com/in/karine-serfati-1b0801153/?originalSubdomain=fr</t>
   </si>
   <si>
-    <t>Manager Talent Acquisition chez SFR</t>
-  </si>
-  <si>
     <t>Stéphanie MOISSET</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/stéphanie-moisset-ba827115b/?originalSubdomain=fr</t>
   </si>
   <si>
-    <t>Responsable Ressources Humaines chez SFR</t>
-  </si>
-  <si>
     <t>Sonia RASSAA</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/sonia-rassaa/</t>
   </si>
   <si>
-    <t>Directrice des Ressources Humaines chez SFR Distribution</t>
-  </si>
-  <si>
     <t>Isabelle BOUTIN</t>
   </si>
   <si>
@@ -126,21 +117,12 @@
     <t>https://www.linkedin.com/in/laura-besson/</t>
   </si>
   <si>
-    <t>Responsable RH chez SFR</t>
-  </si>
-  <si>
-    <t>Paris 15</t>
-  </si>
-  <si>
     <t>Angèle Peretti-Gall</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/angeleperettigall/</t>
   </si>
   <si>
-    <t>Chargée RH chez SFR</t>
-  </si>
-  <si>
     <t>Elsa Goncalves</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t>https://www.linkedin.com/in/sarah-ferreira-5a3a93142/</t>
   </si>
   <si>
-    <t>Responsable ressources humaines chez SFR</t>
-  </si>
-  <si>
     <t>Catherine MEUNIER</t>
   </si>
   <si>
@@ -186,7 +165,208 @@
     <t>https://www.linkedin.com/in/didier-jauliac-drh/</t>
   </si>
   <si>
-    <t>DRH SFR</t>
+    <t>karine.serfati@sfr.fr</t>
+  </si>
+  <si>
+    <t>stephanie.moisset@sfr.fr</t>
+  </si>
+  <si>
+    <t>sonia.rassaa@sfr.fr</t>
+  </si>
+  <si>
+    <t>isabelle.boutin@sfr.fr</t>
+  </si>
+  <si>
+    <t>nadia.gourou@sfr.fr</t>
+  </si>
+  <si>
+    <t>andrea.castex@sfr.fr</t>
+  </si>
+  <si>
+    <t>anne-marie.rojas@sfr.fr</t>
+  </si>
+  <si>
+    <t>laura.besson@sfr.fr</t>
+  </si>
+  <si>
+    <t>angele.peretti-gal@sfr.fr</t>
+  </si>
+  <si>
+    <t>elsa.goncalves@sfr.fr</t>
+  </si>
+  <si>
+    <t>sarah.ferreira@sfr.fr</t>
+  </si>
+  <si>
+    <t>catherine.meunier@sfr.fr</t>
+  </si>
+  <si>
+    <t>melina.david@sfr.fr</t>
+  </si>
+  <si>
+    <t>didier.jauliac@sfr.fr</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/judicael-tongsi-kamwa/?originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>judicaeltongsi.kamwa@sfr.fr</t>
+  </si>
+  <si>
+    <t>Data engineer</t>
+  </si>
+  <si>
+    <t>Cachan, Île-de-France, France</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Bilel Larkem</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bilel-larkem/</t>
+  </si>
+  <si>
+    <t>bilel.larkem@sfr.fr</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Ferhat Yousfi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ferhat-yousfi-b80705b4/?original_referer=https%3A%2F%2Fwww.google.com%2F&amp;originalSubdomain=fr</t>
+  </si>
+  <si>
+    <t>ferhat.yousfi@sfr.fr</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Neuilly-Plaisance, Île-de-France, France</t>
+  </si>
+  <si>
+    <t>Amaury Sudrie</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amaury-sudrie-645a5a184/</t>
+  </si>
+  <si>
+    <t>amaury.sudrie@sfr.fr</t>
+  </si>
+  <si>
+    <t>Thibaut Mitanchez</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/thibaut-mitanchez-b75749/</t>
+  </si>
+  <si>
+    <t>thibaut.mitanchez@sfr.fr</t>
+  </si>
+  <si>
+    <t>Christophe Antoine</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/christophe-antoine-a276262a/</t>
+  </si>
+  <si>
+    <t>christophe.antoine@sfr.fr</t>
+  </si>
+  <si>
+    <t>Data Team Manager &amp; Data Architect</t>
+  </si>
+  <si>
+    <t>Philippe Hanotaux</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/philippe-hanotaux/</t>
+  </si>
+  <si>
+    <t>philippe.hanotaux@sfr.fr</t>
+  </si>
+  <si>
+    <t>Responsable d'activité Analytics et Big Data Réseau</t>
+  </si>
+  <si>
+    <t>David DRUBIGNY</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/david-drubigny-8a513312/</t>
+  </si>
+  <si>
+    <t>Saint-denis, Île-de-France</t>
+  </si>
+  <si>
+    <t>Maxime TRUFFIER</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mtruffier/</t>
+  </si>
+  <si>
+    <t>Data Analyst Manager</t>
+  </si>
+  <si>
+    <t>Chaimaa KOBEE</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chaimaa-kobee/</t>
+  </si>
+  <si>
+    <t>Hanane ALABI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hanane-alabi-6917051b9/</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>david.drubigny@sfr.fr</t>
+  </si>
+  <si>
+    <t>maxime.truffier@sfr.fr</t>
+  </si>
+  <si>
+    <t>chaimaa.kobee@sfr.fr</t>
+  </si>
+  <si>
+    <t>hanane.alabi@sfr.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris, Île-de-France, France </t>
+  </si>
+  <si>
+    <t>Judicael TONGSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsable Ressources Humaines </t>
+  </si>
+  <si>
+    <t>Manager Talent Acquisition</t>
+  </si>
+  <si>
+    <t>DRH</t>
+  </si>
+  <si>
+    <t>Responsable RH</t>
+  </si>
+  <si>
+    <t>Responsable ressources humaines</t>
+  </si>
+  <si>
+    <t>Data Science Manager</t>
+  </si>
+  <si>
+    <t>CIO - Head of Data &amp; Corporate IT</t>
+  </si>
+  <si>
+    <t>Responsable de projets Data et CRM</t>
+  </si>
+  <si>
+    <t>Data Engineer BI</t>
   </si>
 </sst>
 </file>
@@ -239,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -251,13 +431,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,9 +757,11 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -596,14 +772,16 @@
     </row>
     <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -614,290 +792,497 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5C80DDF0-11C5-456D-A551-9AC38111049C}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.linkedin.com/in/st%C3%A9phanie-moisset-ba827115b/?originalSubdomain=fr" xr:uid="{E33FDEF1-474E-4994-B55F-950C16522281}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4DFC9847-7B54-4665-8F92-7DF9DBF436DF}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{BB4419BC-CF3D-41B2-8EB6-F01FD833E839}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{DECA29BE-6256-4BB3-88C5-934C8066F8B9}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{0D5BEEE2-09E2-45F5-9D34-A63DF45E442F}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{CD51B948-6F6A-42E6-AB8F-5C800DEC64E9}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{D19D9CA3-46BC-4C32-BE59-50ACCABD4662}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{92093A94-80C2-4379-807B-5E485734DAF9}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{FC784D80-3A56-405E-A6F9-C90812AD97F4}"/>
-    <hyperlink ref="B17" r:id="rId11" xr:uid="{EB2A1786-93EC-4A2B-8C3C-CA9B9E743D8A}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{1536FC49-9AC6-4936-A91E-5B8A130EC44C}"/>
-    <hyperlink ref="B21" r:id="rId13" xr:uid="{864EA635-5044-4C98-97E3-A32571FB472E}"/>
-    <hyperlink ref="B7" r:id="rId14" display="https://www.linkedin.com/in/andr%C3%A9a-castex-84b91212a/" xr:uid="{0C2F1F58-8518-4CA5-8C76-DAAC4A07A01E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3FA3CCA8-5D43-4306-8F72-C24FAC0E17E7}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.linkedin.com/in/st%C3%A9phanie-moisset-ba827115b/?originalSubdomain=fr" xr:uid="{4DF2FBA9-202D-4436-A5AB-462408CE43CA}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7179416E-F6E3-4EDE-ABF8-6806FABCE512}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{20C74CE8-A0F0-4E7B-801F-309A898AB8EF}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C4E5B84A-5D38-4C8C-8D25-941369C4E17A}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{7A241ACA-5CC4-465E-8E96-FDD6B2633CD8}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{F7D6284B-3C3A-4E23-A446-3FD331764CDF}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{4ACFD646-9A1B-49C3-80E6-4BDEE0FB952C}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{2BC54532-853F-4C4C-A077-5D2C5DB9A226}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{6423716A-38CB-4562-AEF4-8F5CDA102988}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{307DB527-A871-4E29-9E94-506814A1E8F2}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{A76BB267-843E-4EE9-BA32-8BAEE126D7F1}"/>
+    <hyperlink ref="B7" r:id="rId13" display="https://www.linkedin.com/in/andr%C3%A9a-castex-84b91212a/" xr:uid="{B85C0952-9F46-4517-83D6-90FE5F449841}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{8E740A6C-C6E7-4A6D-BFD7-444D4D63F2ED}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{E4778E35-C20E-49B2-BE3D-D479EDE27442}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{59229BC5-5F21-4C8D-9E30-A2BE8AD7FBB8}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.linkedin.com/in/ferhat-yousfi-b80705b4/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=fr" xr:uid="{FA405C62-1304-4396-8432-9719C386A0F7}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{1B4EB009-B85E-42CF-BB61-6EC3E161955D}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{D039901C-4287-4B56-96A4-CCCFBC67D4A2}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{816F3C35-64FE-4576-88FB-C9CD337400FE}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{5E7EFBD8-DBBF-4667-828E-41BD2222D6A0}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{363A9523-24CF-4A67-87A4-5DDF0165F6A9}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{7768C57D-52E8-49BB-B32D-322C7D5BA8A6}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{2427BCE1-40F0-45EC-BB4B-F594D2CDD5D0}"/>
+    <hyperlink ref="C23" r:id="rId25" xr:uid="{3512ED62-21CB-43C1-BB5C-DCD88BA2940A}"/>
+    <hyperlink ref="C24" r:id="rId26" xr:uid="{55B94D81-C65F-49AB-9267-A4EB8105614D}"/>
+    <hyperlink ref="C25" r:id="rId27" xr:uid="{D4E47EE4-2A5F-4750-A45A-4499DD1A241A}"/>
+    <hyperlink ref="C26" r:id="rId28" xr:uid="{A305A83A-B741-4438-8ADE-5A91E25BEC6E}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{3E6B2FC5-1B43-4939-95B3-C5B096455B3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/data/contacts/SFR - contacts.xlsx
+++ b/data/contacts/SFR - contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8010174\Desktop\projects\Lettre de Motivation adapter\data\contacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1761B921-95DB-4E08-9F06-1D653680E410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2A633-15E2-4D8A-8739-4A030FE78E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
